--- a/table_markets_analysis.xlsx
+++ b/table_markets_analysis.xlsx
@@ -437,7 +437,7 @@
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection sqref="A1:H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
